--- a/Import.xlsx
+++ b/Import.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuThan\Desktop\MyanmarERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuThan\Documents\Development\MyanmarERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF4DA7D-956B-4830-B316-21121305F7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14CC134-A6C7-4589-A466-29B5D4A4AA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,9 +38,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -1292,12 +1302,15 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>Book_no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2131,63 +2144,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -2198,25 +2216,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -2227,25 +2245,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -2256,25 +2274,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -2285,25 +2303,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -2314,25 +2332,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -2343,25 +2361,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -2372,25 +2390,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>16</v>
@@ -2401,25 +2419,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>15</v>
@@ -2430,25 +2448,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2459,25 +2477,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -2488,25 +2506,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2517,25 +2535,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -2546,25 +2564,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
       <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
         <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -2575,25 +2593,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>54</v>
       </c>
       <c r="H19">
         <v>15</v>
@@ -2604,25 +2622,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
         <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
       </c>
       <c r="H20">
         <v>14</v>
@@ -2633,25 +2651,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21">
         <v>16</v>
@@ -2662,25 +2680,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>16</v>
@@ -2691,25 +2709,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>65</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
       </c>
       <c r="H23">
         <v>16</v>
@@ -2720,25 +2738,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>69</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>70</v>
-      </c>
-      <c r="G24" t="s">
-        <v>71</v>
       </c>
       <c r="H24">
         <v>16</v>
@@ -2749,25 +2767,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>31</v>
@@ -2778,25 +2796,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
         <v>75</v>
       </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s">
-        <v>76</v>
-      </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>30</v>
@@ -2807,25 +2825,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>78</v>
       </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29">
         <v>23</v>
@@ -2836,25 +2854,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
         <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>81</v>
       </c>
       <c r="H30">
         <v>24</v>
@@ -2865,25 +2883,25 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31">
         <v>15</v>
@@ -2894,25 +2912,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
         <v>84</v>
       </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
       <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
         <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
       </c>
       <c r="H32">
         <v>15</v>
@@ -2923,25 +2941,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
         <v>86</v>
       </c>
-      <c r="E33" t="s">
-        <v>87</v>
-      </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33">
         <v>26</v>
@@ -2952,25 +2970,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>89</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>90</v>
       </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34">
         <v>22</v>
@@ -2981,25 +2999,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>31</v>
@@ -3010,25 +3028,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
         <v>93</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
         <v>94</v>
       </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
-      </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>15</v>
@@ -3039,25 +3057,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
       <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
         <v>96</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
       </c>
-      <c r="E38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>15</v>
@@ -3068,25 +3086,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
         <v>99</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>100</v>
       </c>
-      <c r="F39" t="s">
-        <v>101</v>
-      </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>15</v>
@@ -3097,25 +3115,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
         <v>102</v>
       </c>
-      <c r="E40" t="s">
-        <v>103</v>
-      </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>14</v>
@@ -3126,25 +3144,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
         <v>104</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>105</v>
       </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41">
         <v>24</v>
@@ -3155,25 +3173,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
         <v>107</v>
       </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>24</v>
@@ -3184,25 +3202,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43">
         <v>24</v>
@@ -3213,25 +3231,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>25</v>
@@ -3242,25 +3260,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>18</v>
       </c>
       <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
         <v>111</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>112</v>
       </c>
-      <c r="E45" t="s">
-        <v>113</v>
-      </c>
       <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
         <v>33</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
       </c>
       <c r="H45">
         <v>32</v>
@@ -3271,25 +3289,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>19</v>
       </c>
       <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
         <v>114</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
         <v>115</v>
       </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>116</v>
-      </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>31</v>
@@ -3300,25 +3318,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" t="s">
         <v>117</v>
       </c>
-      <c r="E47" t="s">
-        <v>118</v>
-      </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>30</v>
@@ -3329,25 +3347,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
         <v>120</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>121</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>122</v>
       </c>
-      <c r="F50" t="s">
-        <v>123</v>
-      </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>43</v>
@@ -3358,25 +3376,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
         <v>124</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>125</v>
       </c>
-      <c r="E51" t="s">
-        <v>126</v>
-      </c>
       <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
         <v>33</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
       </c>
       <c r="H51">
         <v>30</v>
@@ -3387,25 +3405,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
         <v>127</v>
       </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52">
         <v>29</v>
@@ -3416,25 +3434,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
         <v>129</v>
       </c>
-      <c r="E53" t="s">
-        <v>130</v>
-      </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H53">
         <v>38</v>
@@ -3445,25 +3463,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" t="s">
         <v>122</v>
       </c>
-      <c r="F54" t="s">
-        <v>123</v>
-      </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>41</v>
@@ -3474,25 +3492,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
         <v>132</v>
       </c>
-      <c r="E55" t="s">
-        <v>133</v>
-      </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>28</v>
@@ -3503,25 +3521,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
         <v>134</v>
       </c>
-      <c r="E56" t="s">
-        <v>135</v>
-      </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>31</v>
@@ -3532,25 +3550,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
       <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
         <v>136</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>137</v>
       </c>
-      <c r="E57" t="s">
-        <v>138</v>
-      </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57">
         <v>19</v>
@@ -3561,25 +3579,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
         <v>139</v>
       </c>
-      <c r="E58" t="s">
-        <v>140</v>
-      </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>30</v>
@@ -3590,25 +3608,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
       <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
         <v>141</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>142</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>143</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>144</v>
-      </c>
-      <c r="G59" t="s">
-        <v>145</v>
       </c>
       <c r="H59">
         <v>32</v>
@@ -3619,25 +3637,25 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61">
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
         <v>146</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
         <v>147</v>
-      </c>
-      <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>148</v>
       </c>
       <c r="H61">
         <v>40</v>
@@ -3648,25 +3666,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62">
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" t="s">
         <v>149</v>
       </c>
-      <c r="E62" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" t="s">
-        <v>150</v>
-      </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>32</v>
@@ -3677,25 +3695,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>40</v>
@@ -3706,25 +3724,25 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>38</v>
@@ -3735,25 +3753,25 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B65">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s">
         <v>153</v>
       </c>
-      <c r="E65" t="s">
-        <v>147</v>
-      </c>
-      <c r="F65" t="s">
-        <v>154</v>
-      </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65">
         <v>41</v>
@@ -3764,25 +3782,25 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66">
         <v>16</v>
       </c>
       <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s">
         <v>155</v>
       </c>
-      <c r="D66" t="s">
-        <v>156</v>
-      </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>42</v>
@@ -3793,25 +3811,25 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B67">
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>41</v>
@@ -3822,25 +3840,25 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" t="s">
         <v>158</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>159</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>160</v>
-      </c>
-      <c r="G68" t="s">
-        <v>161</v>
       </c>
       <c r="H68">
         <v>37</v>
@@ -3851,25 +3869,25 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69">
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>31</v>
@@ -3880,25 +3898,25 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B70">
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" t="s">
         <v>163</v>
-      </c>
-      <c r="E70" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>150</v>
-      </c>
-      <c r="G70" t="s">
-        <v>164</v>
       </c>
       <c r="H70">
         <v>29</v>
@@ -3909,25 +3927,25 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" t="s">
         <v>166</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="E73" t="s">
-        <v>168</v>
-      </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>39</v>
@@ -3938,25 +3956,25 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
         <v>169</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
         <v>170</v>
-      </c>
-      <c r="E74" t="s">
-        <v>140</v>
-      </c>
-      <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>171</v>
       </c>
       <c r="H74">
         <v>48</v>
@@ -3967,25 +3985,25 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" t="s">
         <v>172</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>173</v>
       </c>
-      <c r="F75" t="s">
-        <v>174</v>
-      </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>35</v>
@@ -3996,25 +4014,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" t="s">
         <v>175</v>
       </c>
-      <c r="E76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" t="s">
-        <v>176</v>
-      </c>
       <c r="G76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H76">
         <v>46</v>
@@ -4025,25 +4043,25 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B77">
         <v>5</v>
       </c>
       <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" t="s">
         <v>177</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" t="s">
         <v>178</v>
       </c>
-      <c r="E77" t="s">
-        <v>138</v>
-      </c>
-      <c r="F77" t="s">
-        <v>179</v>
-      </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H77">
         <v>38</v>
@@ -4054,25 +4072,25 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
         <v>180</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>181</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>182</v>
       </c>
-      <c r="F78" t="s">
-        <v>183</v>
-      </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>41</v>
@@ -4083,25 +4101,25 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>40</v>
@@ -4112,25 +4130,25 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" t="s">
         <v>185</v>
       </c>
-      <c r="E80" t="s">
-        <v>186</v>
-      </c>
       <c r="F80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H80">
         <v>41</v>
@@ -4141,25 +4159,25 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B81">
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" t="s">
         <v>187</v>
       </c>
-      <c r="E81" t="s">
-        <v>188</v>
-      </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H81">
         <v>41</v>
@@ -4170,25 +4188,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B82">
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" t="s">
         <v>189</v>
       </c>
-      <c r="E82" t="s">
-        <v>190</v>
-      </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>38</v>
@@ -4199,25 +4217,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84">
         <v>11</v>
       </c>
       <c r="C84" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" t="s">
         <v>191</v>
       </c>
-      <c r="D84" t="s">
-        <v>192</v>
-      </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>39</v>
@@ -4228,25 +4246,25 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85">
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" t="s">
         <v>193</v>
       </c>
-      <c r="E85" t="s">
-        <v>194</v>
-      </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>40</v>
@@ -4257,25 +4275,25 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86">
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
         <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
       </c>
       <c r="H86">
         <v>40</v>
@@ -4286,25 +4304,25 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87">
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" t="s">
         <v>196</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>197</v>
       </c>
-      <c r="F87" t="s">
-        <v>198</v>
-      </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H87">
         <v>41</v>
@@ -4315,25 +4333,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B88">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" t="s">
         <v>199</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>200</v>
       </c>
-      <c r="F88" t="s">
-        <v>201</v>
-      </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>41</v>
@@ -4344,25 +4362,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D89" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" t="s">
         <v>202</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>203</v>
       </c>
-      <c r="F89" t="s">
-        <v>204</v>
-      </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H89">
         <v>51</v>
@@ -4373,25 +4391,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B90">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D90" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" t="s">
         <v>205</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>206</v>
       </c>
-      <c r="F90" t="s">
-        <v>207</v>
-      </c>
       <c r="G90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H90">
         <v>55</v>
@@ -4402,25 +4420,25 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B91">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" t="s">
         <v>208</v>
       </c>
-      <c r="E91" t="s">
-        <v>209</v>
-      </c>
       <c r="F91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>47</v>
@@ -4431,25 +4449,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92">
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D92" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" t="s">
         <v>210</v>
       </c>
-      <c r="E92" t="s">
-        <v>211</v>
-      </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>45</v>
@@ -4460,25 +4478,25 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B93">
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" t="s">
         <v>212</v>
       </c>
-      <c r="E93" t="s">
-        <v>213</v>
-      </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H93">
         <v>48</v>
@@ -4489,25 +4507,25 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
         <v>215</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>216</v>
       </c>
-      <c r="E96" t="s">
-        <v>217</v>
-      </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H96">
         <v>55</v>
@@ -4518,25 +4536,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>56</v>
@@ -4547,25 +4565,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" t="s">
         <v>219</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>220</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>221</v>
       </c>
-      <c r="F98" t="s">
-        <v>222</v>
-      </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>36</v>
@@ -4576,25 +4594,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B99">
         <v>4</v>
       </c>
       <c r="C99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" t="s">
         <v>223</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>224</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>225</v>
       </c>
-      <c r="F99" t="s">
-        <v>226</v>
-      </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>62</v>
@@ -4605,25 +4623,25 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D100" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
         <v>227</v>
-      </c>
-      <c r="E100" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>228</v>
       </c>
       <c r="H100">
         <v>51</v>
@@ -4634,25 +4652,25 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101">
         <v>6</v>
       </c>
       <c r="C101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" t="s">
         <v>229</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>230</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
         <v>231</v>
-      </c>
-      <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>232</v>
       </c>
       <c r="H101">
         <v>62</v>
@@ -4663,25 +4681,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>43</v>
@@ -4692,25 +4710,25 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103">
         <v>8</v>
       </c>
       <c r="C103" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" t="s">
         <v>234</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>235</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
         <v>236</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>237</v>
       </c>
       <c r="H103">
         <v>43</v>
@@ -4721,22 +4739,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104">
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" t="s">
         <v>238</v>
       </c>
-      <c r="E104" t="s">
-        <v>239</v>
-      </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H104">
         <v>32</v>
@@ -4747,25 +4765,25 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>10</v>
       </c>
       <c r="C105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" t="s">
         <v>240</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>241</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>242</v>
       </c>
-      <c r="F105" t="s">
-        <v>243</v>
-      </c>
       <c r="G105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H105">
         <v>40</v>
@@ -4776,25 +4794,25 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107">
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" t="s">
+        <v>243</v>
+      </c>
+      <c r="E107" t="s">
         <v>244</v>
       </c>
-      <c r="E107" t="s">
-        <v>245</v>
-      </c>
       <c r="F107" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H107">
         <v>57</v>
@@ -4805,25 +4823,25 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108">
         <v>12</v>
       </c>
       <c r="C108" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" t="s">
         <v>246</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>247</v>
       </c>
-      <c r="E108" t="s">
-        <v>248</v>
-      </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>57</v>
@@ -4834,25 +4852,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109">
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D109" t="s">
+        <v>248</v>
+      </c>
+      <c r="E109" t="s">
         <v>249</v>
       </c>
-      <c r="E109" t="s">
-        <v>250</v>
-      </c>
       <c r="F109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>57</v>
@@ -4863,25 +4881,25 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110">
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D110" t="s">
+        <v>250</v>
+      </c>
+      <c r="E110" t="s">
         <v>251</v>
       </c>
-      <c r="E110" t="s">
-        <v>252</v>
-      </c>
       <c r="F110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>64</v>
@@ -4892,25 +4910,25 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111">
         <v>15</v>
       </c>
       <c r="C111" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" t="s">
         <v>253</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>254</v>
       </c>
-      <c r="E111" t="s">
-        <v>255</v>
-      </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>56</v>
@@ -4921,25 +4939,25 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B112">
         <v>16</v>
       </c>
       <c r="C112" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" t="s">
         <v>256</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" t="s">
         <v>257</v>
       </c>
-      <c r="E112" t="s">
-        <v>140</v>
-      </c>
-      <c r="F112" t="s">
-        <v>258</v>
-      </c>
       <c r="G112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H112">
         <v>63</v>
@@ -4950,25 +4968,25 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B113">
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D113" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" t="s">
         <v>259</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>260</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>261</v>
-      </c>
-      <c r="G113" t="s">
-        <v>262</v>
       </c>
       <c r="H113">
         <v>63</v>
@@ -4979,25 +4997,25 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B114">
         <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114" t="s">
         <v>263</v>
       </c>
-      <c r="E114" t="s">
-        <v>264</v>
-      </c>
       <c r="F114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>59</v>
@@ -5008,25 +5026,25 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115">
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D115" t="s">
+        <v>264</v>
+      </c>
+      <c r="E115" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
         <v>265</v>
-      </c>
-      <c r="E115" t="s">
-        <v>245</v>
-      </c>
-      <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>266</v>
       </c>
       <c r="H115">
         <v>59</v>
@@ -5037,25 +5055,25 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B116">
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>54</v>
@@ -5066,25 +5084,25 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>268</v>
+      </c>
+      <c r="D119" t="s">
         <v>269</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>270</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>271</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>272</v>
-      </c>
-      <c r="G119" t="s">
-        <v>273</v>
       </c>
       <c r="H119">
         <v>115</v>
@@ -5095,25 +5113,25 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" t="s">
         <v>274</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>275</v>
       </c>
-      <c r="E120" t="s">
-        <v>276</v>
-      </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H120">
         <v>73</v>
@@ -5124,25 +5142,25 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D121" t="s">
+        <v>276</v>
+      </c>
+      <c r="E121" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" t="s">
-        <v>122</v>
-      </c>
-      <c r="F121" t="s">
-        <v>278</v>
-      </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>69</v>
@@ -5153,25 +5171,25 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="C122" t="s">
+        <v>278</v>
+      </c>
+      <c r="D122" t="s">
         <v>279</v>
       </c>
-      <c r="D122" t="s">
-        <v>280</v>
-      </c>
       <c r="E122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>80</v>
@@ -5182,25 +5200,25 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123" t="s">
+        <v>280</v>
+      </c>
+      <c r="D123" t="s">
         <v>281</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>282</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
         <v>283</v>
-      </c>
-      <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s">
-        <v>284</v>
       </c>
       <c r="H123">
         <v>90</v>
@@ -5211,25 +5229,25 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B124">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D124" t="s">
+        <v>284</v>
+      </c>
+      <c r="E124" t="s">
         <v>285</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
+        <v>221</v>
+      </c>
+      <c r="G124" t="s">
         <v>286</v>
-      </c>
-      <c r="F124" t="s">
-        <v>222</v>
-      </c>
-      <c r="G124" t="s">
-        <v>287</v>
       </c>
       <c r="H124">
         <v>88</v>
@@ -5240,25 +5258,25 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B125">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D125" t="s">
+        <v>287</v>
+      </c>
+      <c r="E125" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
         <v>288</v>
-      </c>
-      <c r="E125" t="s">
-        <v>140</v>
-      </c>
-      <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>289</v>
       </c>
       <c r="H125">
         <v>80</v>
@@ -5269,25 +5287,25 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B126">
         <v>8</v>
       </c>
       <c r="C126" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" t="s">
         <v>290</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>291</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
         <v>292</v>
-      </c>
-      <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>293</v>
       </c>
       <c r="H126">
         <v>62</v>
@@ -5298,25 +5316,25 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B127">
         <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D127" t="s">
+        <v>293</v>
+      </c>
+      <c r="E127" t="s">
         <v>294</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>295</v>
       </c>
-      <c r="F127" t="s">
-        <v>296</v>
-      </c>
       <c r="G127" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H127">
         <v>73</v>
@@ -5327,25 +5345,25 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B128">
         <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D128" t="s">
+        <v>296</v>
+      </c>
+      <c r="E128" t="s">
         <v>297</v>
       </c>
-      <c r="E128" t="s">
-        <v>298</v>
-      </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G128" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H128">
         <v>73</v>
@@ -5356,25 +5374,25 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B130">
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D130" t="s">
+        <v>298</v>
+      </c>
+      <c r="E130" t="s">
         <v>299</v>
       </c>
-      <c r="E130" t="s">
-        <v>300</v>
-      </c>
       <c r="F130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>73</v>
@@ -5385,25 +5403,25 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B131">
         <v>12</v>
       </c>
       <c r="C131" t="s">
+        <v>300</v>
+      </c>
+      <c r="D131" t="s">
         <v>301</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>302</v>
       </c>
-      <c r="E131" t="s">
-        <v>303</v>
-      </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>87</v>
@@ -5414,25 +5432,25 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B132">
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D132">
         <v>1984</v>
       </c>
       <c r="E132" t="s">
+        <v>303</v>
+      </c>
+      <c r="F132" t="s">
         <v>304</v>
       </c>
-      <c r="F132" t="s">
-        <v>305</v>
-      </c>
       <c r="G132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H132">
         <v>68</v>
@@ -5443,25 +5461,25 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B133">
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D133" t="s">
+        <v>305</v>
+      </c>
+      <c r="E133" t="s">
         <v>306</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
         <v>307</v>
-      </c>
-      <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s">
-        <v>308</v>
       </c>
       <c r="H133">
         <v>69</v>
@@ -5472,25 +5490,25 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B134">
         <v>15</v>
       </c>
       <c r="C134" t="s">
+        <v>308</v>
+      </c>
+      <c r="D134" t="s">
         <v>309</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>310</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
         <v>311</v>
-      </c>
-      <c r="F134" t="s">
-        <v>38</v>
-      </c>
-      <c r="G134" t="s">
-        <v>312</v>
       </c>
       <c r="H134">
         <v>72</v>
@@ -5501,25 +5519,25 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B135">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D135" t="s">
+        <v>312</v>
+      </c>
+      <c r="E135" t="s">
         <v>313</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
+        <v>153</v>
+      </c>
+      <c r="G135" t="s">
         <v>314</v>
-      </c>
-      <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s">
-        <v>315</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -5530,25 +5548,25 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B136">
         <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D136" t="s">
+        <v>315</v>
+      </c>
+      <c r="E136" t="s">
         <v>316</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>153</v>
+      </c>
+      <c r="G136" t="s">
         <v>317</v>
-      </c>
-      <c r="F136" t="s">
-        <v>154</v>
-      </c>
-      <c r="G136" t="s">
-        <v>318</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -5559,25 +5577,25 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B137">
         <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D137" t="s">
+        <v>318</v>
+      </c>
+      <c r="E137" t="s">
         <v>319</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>320</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>321</v>
-      </c>
-      <c r="G137" t="s">
-        <v>322</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -5588,25 +5606,25 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B138">
         <v>19</v>
       </c>
       <c r="C138" t="s">
+        <v>322</v>
+      </c>
+      <c r="D138" t="s">
         <v>323</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>324</v>
       </c>
-      <c r="E138" t="s">
-        <v>325</v>
-      </c>
       <c r="F138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -5617,25 +5635,25 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B139">
         <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F139" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -5646,25 +5664,25 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" t="s">
         <v>328</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>329</v>
       </c>
-      <c r="E142" t="s">
-        <v>330</v>
-      </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H142">
         <v>88</v>
@@ -5675,25 +5693,25 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143" t="s">
+        <v>330</v>
+      </c>
+      <c r="D143" t="s">
         <v>331</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>332</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>333</v>
       </c>
-      <c r="F143" t="s">
-        <v>334</v>
-      </c>
       <c r="G143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H143">
         <v>90</v>
@@ -5704,25 +5722,25 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D144" t="s">
+        <v>334</v>
+      </c>
+      <c r="E144" t="s">
         <v>335</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
+        <v>333</v>
+      </c>
+      <c r="G144" t="s">
         <v>336</v>
-      </c>
-      <c r="F144" t="s">
-        <v>334</v>
-      </c>
-      <c r="G144" t="s">
-        <v>337</v>
       </c>
       <c r="H144">
         <v>76</v>
@@ -5733,25 +5751,25 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D145" t="s">
+        <v>337</v>
+      </c>
+      <c r="E145" t="s">
         <v>338</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>339</v>
       </c>
-      <c r="F145" t="s">
-        <v>340</v>
-      </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>86</v>
@@ -5762,25 +5780,25 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B146">
         <v>5</v>
       </c>
       <c r="C146" t="s">
+        <v>340</v>
+      </c>
+      <c r="D146" t="s">
         <v>341</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>342</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>343</v>
       </c>
-      <c r="F146" t="s">
-        <v>344</v>
-      </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>96</v>
@@ -5791,25 +5809,25 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B147">
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D147" t="s">
+        <v>344</v>
+      </c>
+      <c r="E147" t="s">
         <v>345</v>
       </c>
-      <c r="E147" t="s">
-        <v>346</v>
-      </c>
       <c r="F147" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
         <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>21</v>
       </c>
       <c r="H147">
         <v>96</v>
@@ -5820,25 +5838,25 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B148">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D148" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H148">
         <v>86</v>
@@ -5849,25 +5867,25 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B149">
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D149" t="s">
+        <v>347</v>
+      </c>
+      <c r="E149" t="s">
         <v>348</v>
       </c>
-      <c r="E149" t="s">
-        <v>349</v>
-      </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H149">
         <v>90</v>
@@ -5878,25 +5896,25 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B150">
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D150" t="s">
+        <v>349</v>
+      </c>
+      <c r="E150" t="s">
         <v>350</v>
       </c>
-      <c r="E150" t="s">
-        <v>351</v>
-      </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H150">
         <v>85</v>
@@ -5907,25 +5925,25 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B151">
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D151" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G151" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H151">
         <v>86</v>
@@ -5936,25 +5954,25 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B153">
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D153" t="s">
+        <v>352</v>
+      </c>
+      <c r="E153" t="s">
         <v>353</v>
       </c>
-      <c r="E153" t="s">
-        <v>354</v>
-      </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H153">
         <v>96</v>
@@ -5965,25 +5983,25 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B154">
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D154" t="s">
+        <v>354</v>
+      </c>
+      <c r="E154" t="s">
+        <v>353</v>
+      </c>
+      <c r="F154" t="s">
+        <v>37</v>
+      </c>
+      <c r="G154" t="s">
         <v>355</v>
-      </c>
-      <c r="E154" t="s">
-        <v>354</v>
-      </c>
-      <c r="F154" t="s">
-        <v>38</v>
-      </c>
-      <c r="G154" t="s">
-        <v>356</v>
       </c>
       <c r="H154">
         <v>96</v>
@@ -5994,25 +6012,25 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B155">
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D155" t="s">
+        <v>356</v>
+      </c>
+      <c r="E155" t="s">
         <v>357</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
         <v>358</v>
-      </c>
-      <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s">
-        <v>359</v>
       </c>
       <c r="H155">
         <v>89</v>
@@ -6023,25 +6041,25 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B156">
         <v>14</v>
       </c>
       <c r="C156" t="s">
+        <v>359</v>
+      </c>
+      <c r="D156" t="s">
         <v>360</v>
       </c>
-      <c r="D156" t="s">
-        <v>361</v>
-      </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>72</v>
@@ -6052,25 +6070,25 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B157">
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D157" t="s">
+        <v>361</v>
+      </c>
+      <c r="E157" t="s">
         <v>362</v>
       </c>
-      <c r="E157" t="s">
-        <v>363</v>
-      </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H157">
         <v>93</v>
@@ -6081,25 +6099,25 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B158">
         <v>16</v>
       </c>
       <c r="C158" t="s">
+        <v>363</v>
+      </c>
+      <c r="D158" t="s">
         <v>364</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>365</v>
       </c>
-      <c r="E158" t="s">
-        <v>366</v>
-      </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -6110,25 +6128,25 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B159">
         <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E159" t="s">
         <v>367</v>
       </c>
-      <c r="E159" t="s">
-        <v>368</v>
-      </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -6139,25 +6157,25 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B160">
         <v>18</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D160" t="s">
+        <v>368</v>
+      </c>
+      <c r="E160" t="s">
         <v>369</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>370</v>
       </c>
-      <c r="F160" t="s">
-        <v>371</v>
-      </c>
       <c r="G160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6168,25 +6186,25 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B161">
         <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D161" t="s">
+        <v>371</v>
+      </c>
+      <c r="E161" t="s">
         <v>372</v>
       </c>
-      <c r="E161" t="s">
-        <v>373</v>
-      </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -6197,25 +6215,25 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B162">
         <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D162" t="s">
+        <v>373</v>
+      </c>
+      <c r="E162" t="s">
+        <v>24</v>
+      </c>
+      <c r="F162" t="s">
         <v>374</v>
       </c>
-      <c r="E162" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>375</v>
-      </c>
-      <c r="G162" t="s">
-        <v>376</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -6226,25 +6244,25 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
+        <v>377</v>
+      </c>
+      <c r="D165" t="s">
         <v>378</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
+        <v>132</v>
+      </c>
+      <c r="F165" t="s">
         <v>379</v>
       </c>
-      <c r="E165" t="s">
-        <v>133</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>380</v>
-      </c>
-      <c r="G165" t="s">
-        <v>381</v>
       </c>
       <c r="H165">
         <v>110</v>
@@ -6255,25 +6273,25 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D166" t="s">
+        <v>381</v>
+      </c>
+      <c r="E166" t="s">
+        <v>125</v>
+      </c>
+      <c r="F166" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
         <v>382</v>
-      </c>
-      <c r="E166" t="s">
-        <v>126</v>
-      </c>
-      <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>383</v>
       </c>
       <c r="H166">
         <v>106</v>
@@ -6284,25 +6302,25 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B167">
         <v>3</v>
       </c>
       <c r="C167" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" t="s">
         <v>384</v>
       </c>
-      <c r="D167" t="s">
-        <v>385</v>
-      </c>
       <c r="E167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H167">
         <v>112</v>
@@ -6313,25 +6331,25 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D168" t="s">
+        <v>385</v>
+      </c>
+      <c r="E168" t="s">
         <v>386</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>387</v>
       </c>
-      <c r="F168" t="s">
-        <v>388</v>
-      </c>
       <c r="G168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H168">
         <v>122</v>
@@ -6342,25 +6360,25 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B169">
         <v>5</v>
       </c>
       <c r="C169" t="s">
+        <v>388</v>
+      </c>
+      <c r="D169" t="s">
         <v>389</v>
       </c>
-      <c r="D169" t="s">
-        <v>390</v>
-      </c>
       <c r="E169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G169" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H169">
         <v>126</v>
@@ -6371,25 +6389,25 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D170" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
       </c>
-      <c r="F170" t="s">
-        <v>340</v>
-      </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>104</v>
@@ -6400,25 +6418,25 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B171">
         <v>7</v>
       </c>
       <c r="C171" t="s">
+        <v>391</v>
+      </c>
+      <c r="D171" t="s">
         <v>392</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>393</v>
       </c>
-      <c r="E171" t="s">
-        <v>394</v>
-      </c>
       <c r="F171" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G171" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H171">
         <v>120</v>
@@ -6429,25 +6447,25 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B172">
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D172" t="s">
+        <v>394</v>
+      </c>
+      <c r="E172" t="s">
         <v>395</v>
       </c>
-      <c r="E172" t="s">
-        <v>396</v>
-      </c>
       <c r="F172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G172" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H172">
         <v>88</v>
@@ -6458,25 +6476,25 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B173">
         <v>9</v>
       </c>
       <c r="C173" t="s">
+        <v>396</v>
+      </c>
+      <c r="D173" t="s">
         <v>397</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>398</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
         <v>399</v>
-      </c>
-      <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s">
-        <v>400</v>
       </c>
       <c r="H173">
         <v>101</v>
@@ -6487,25 +6505,25 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B174">
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D174" t="s">
+        <v>400</v>
+      </c>
+      <c r="E174" t="s">
         <v>401</v>
       </c>
-      <c r="E174" t="s">
-        <v>402</v>
-      </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H174">
         <v>105</v>
@@ -6516,25 +6534,25 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B176">
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D176" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H176">
         <v>112</v>
@@ -6545,25 +6563,25 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B177">
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D177" t="s">
+        <v>403</v>
+      </c>
+      <c r="E177" t="s">
         <v>404</v>
       </c>
-      <c r="E177" t="s">
-        <v>405</v>
-      </c>
       <c r="F177" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H177">
         <v>104</v>
@@ -6574,25 +6592,25 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B178">
         <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D178" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H178">
         <v>108</v>
@@ -6603,25 +6621,25 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B179">
         <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D179" t="s">
+        <v>406</v>
+      </c>
+      <c r="E179" t="s">
         <v>407</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
+        <v>37</v>
+      </c>
+      <c r="G179" t="s">
         <v>408</v>
-      </c>
-      <c r="F179" t="s">
-        <v>38</v>
-      </c>
-      <c r="G179" t="s">
-        <v>409</v>
       </c>
       <c r="H179">
         <v>102</v>
@@ -6632,25 +6650,25 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B180">
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D180" t="s">
+        <v>409</v>
+      </c>
+      <c r="E180" t="s">
         <v>410</v>
       </c>
-      <c r="E180" t="s">
-        <v>411</v>
-      </c>
       <c r="F180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H180">
         <v>100</v>
@@ -6661,25 +6679,25 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B181">
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
+        <v>411</v>
+      </c>
+      <c r="E181" t="s">
+        <v>372</v>
+      </c>
+      <c r="F181" t="s">
         <v>412</v>
       </c>
-      <c r="E181" t="s">
-        <v>373</v>
-      </c>
-      <c r="F181" t="s">
-        <v>413</v>
-      </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -6690,25 +6708,25 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B182">
         <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D182" t="s">
+        <v>413</v>
+      </c>
+      <c r="E182" t="s">
         <v>414</v>
       </c>
-      <c r="E182" t="s">
-        <v>415</v>
-      </c>
       <c r="F182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -6719,25 +6737,25 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B183">
         <v>18</v>
       </c>
       <c r="C183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D183" t="s">
+        <v>415</v>
+      </c>
+      <c r="E183" t="s">
         <v>416</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>417</v>
       </c>
-      <c r="F183" t="s">
-        <v>418</v>
-      </c>
       <c r="G183" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -6748,25 +6766,25 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184">
         <v>19</v>
       </c>
       <c r="C184" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D184" t="s">
+        <v>418</v>
+      </c>
+      <c r="E184" t="s">
         <v>419</v>
       </c>
-      <c r="E184" t="s">
-        <v>420</v>
-      </c>
       <c r="F184" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -6777,25 +6795,25 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B185">
         <v>20</v>
       </c>
       <c r="C185" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D185" t="s">
+        <v>420</v>
+      </c>
+      <c r="E185" t="s">
         <v>421</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
+        <v>417</v>
+      </c>
+      <c r="G185" t="s">
         <v>422</v>
-      </c>
-      <c r="F185" t="s">
-        <v>418</v>
-      </c>
-      <c r="G185" t="s">
-        <v>423</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -6806,25 +6824,25 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B186">
         <v>20</v>
       </c>
       <c r="C186" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D186" t="s">
+        <v>420</v>
+      </c>
+      <c r="E186" t="s">
         <v>421</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
+        <v>417</v>
+      </c>
+      <c r="G186" t="s">
         <v>422</v>
-      </c>
-      <c r="F186" t="s">
-        <v>418</v>
-      </c>
-      <c r="G186" t="s">
-        <v>423</v>
       </c>
       <c r="H186">
         <v>0</v>

--- a/Import.xlsx
+++ b/Import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuThan\Documents\Development\MyanmarERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14CC134-A6C7-4589-A466-29B5D4A4AA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5485FBF4-EB42-4785-9D6C-5DE7585B8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2147,12 +2147,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
